--- a/biology/Botanique/Entandrophragma_excelsum/Entandrophragma_excelsum.xlsx
+++ b/biology/Botanique/Entandrophragma_excelsum/Entandrophragma_excelsum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Entandrophragma excelsum est une espèce d'arbres de la famille des Méliacées qui se trouve à l'état naturel en Afrique centrale. Un de ses spécimens est connu pour être l'arbre le plus grand d'Afrique.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un arbre à feuilles caduques atteignant en général 30 à 60 mètres de hauteur. Son tronc est droit, cylindrique, et soutenu jusqu'à une hauteur de 4 m, pour un diamètre de 2,5 m au-dessus des contreforts. Il a une large couronne et de grandes branches[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un arbre à feuilles caduques atteignant en général 30 à 60 mètres de hauteur. Son tronc est droit, cylindrique, et soutenu jusqu'à une hauteur de 4 m, pour un diamètre de 2,5 m au-dessus des contreforts. Il a une large couronne et de grandes branches.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Entandrophragma excelsum se rencontre dans l'Est de l'Afrique tropicale, principalement en forêt pluviale et en forêt riveraine entre 925 et 2 220 m d'altitude. Il se présente rarement comme presque la seule espèce d'arbres d'une forêt[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entandrophragma excelsum se rencontre dans l'Est de l'Afrique tropicale, principalement en forêt pluviale et en forêt riveraine entre 925 et 2 220 m d'altitude. Il se présente rarement comme presque la seule espèce d'arbres d'une forêt.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Record</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce détient le record du plus haut arbre d'Afrique. Le spécimen en question se trouve en Tanzanie sur les flancs du Kilimandjaro et mesure 81,5 m de haut. Son âge est estimé à plus de 600 ans. Les arbres africains n'atteignent généralement pas de telles tailles à cause du manque de ressources. Cet arbre et les spécimens qui l'entourent ont bénéficié d'un sol volcanique riche en nutriments ainsi que de températures et précipitations élevées tout en se situant dans une vallée difficile d'accès pour les activités humaines[4],[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce détient le record du plus haut arbre d'Afrique. Le spécimen en question se trouve en Tanzanie sur les flancs du Kilimandjaro et mesure 81,5 m de haut. Son âge est estimé à plus de 600 ans. Les arbres africains n'atteignent généralement pas de telles tailles à cause du manque de ressources. Cet arbre et les spécimens qui l'entourent ont bénéficié d'un sol volcanique riche en nutriments ainsi que de températures et précipitations élevées tout en se situant dans une vallée difficile d'accès pour les activités humaines,.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Entandrophragma excelsum est utilisé comme source d'ombre dans les plantations de café[3]. Sa rareté et les risques de déformation à l'humidité à cause de sa légèreté en font un bois peu prisé pour la construction [6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entandrophragma excelsum est utilisé comme source d'ombre dans les plantations de café. Sa rareté et les risques de déformation à l'humidité à cause de sa légèreté en font un bois peu prisé pour la construction .
 </t>
         </is>
       </c>
@@ -635,15 +655,17 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Entandrophragma excelsum a été décrite par (Dawe &amp; Sprague) Sprague et publié dans le Bulletin of Miscellaneous Information Kew (es) 1910: 180 en 1910[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Entandrophragma excelsum a été décrite par (Dawe &amp; Sprague) Sprague et publié dans le Bulletin of Miscellaneous Information Kew (es) 1910: 180 en 1910.
 Synonymes
 Pseudocedrela excelsa (Dawe &amp; Sprague, 1906)
 Entandrophragma stolzii (Harms, 1917)
 Entandrophragma gillardinii (Ledoux)
 Entandrophragma deiningeri (Harms, 1917)
-Entandrophragma speciosum (Harms)[8]</t>
+Entandrophragma speciosum (Harms)</t>
         </is>
       </c>
     </row>
